--- a/Results.xlsx
+++ b/Results.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="717">
   <si>
     <t>Signs and Symptoms</t>
   </si>
@@ -963,24 +963,12 @@
     <t>gram's stain *</t>
   </si>
   <si>
-    <t>* Esa prueba ya está contada como FN en la parte de arriba con lo que se descarta.</t>
-  </si>
-  <si>
     <t>ECG NOS *</t>
   </si>
   <si>
-    <t>* Se descarta de los TN este elemento por estar detectado previamente con Electrocardiogram</t>
-  </si>
-  <si>
-    <t>FN (Por validación)</t>
-  </si>
-  <si>
     <t>Hepatitis *</t>
   </si>
   <si>
-    <t>* Ya identificado como FN previamente, no se cuenta.</t>
-  </si>
-  <si>
     <t>Rash / rose spots / red spots</t>
   </si>
   <si>
@@ -2200,6 +2188,18 @@
   </si>
   <si>
     <t>Findings not found in the validation (but NLP found them)</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>FN (Because validación)</t>
+  </si>
+  <si>
+    <t>* This test was already counted as FN. We discard it.</t>
   </si>
 </sst>
 </file>
@@ -3152,6 +3152,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3161,6 +3166,253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Statistical analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Values</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$L$8:$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$M$8:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92933749300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67160504200000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84279100500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76524344600000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="128556032"/>
+        <c:axId val="129786624"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="128556032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:effectLst/>
+        </c:spPr>
+        <c:crossAx val="129786624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129786624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128556032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+        </c:spPr>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico" title="Statistical analysis"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3418,7 +3670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3429,7 +3681,7 @@
   <dimension ref="C2:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,7 +4031,7 @@
         <v>299</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
@@ -3787,7 +4039,7 @@
         <v>298</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
@@ -3795,7 +4047,7 @@
         <v>300</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3803,16 +4055,16 @@
         <v>301</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F35" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
@@ -3903,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,7 +4214,7 @@
         <v>177</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
@@ -3982,7 +4234,7 @@
         <v>219</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -3993,27 +4245,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
@@ -4022,7 +4274,7 @@
         <v>224</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>19</v>
@@ -4033,33 +4285,33 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>141</v>
@@ -4073,13 +4325,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -4101,13 +4353,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
@@ -4115,7 +4367,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="49" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>19</v>
@@ -4129,7 +4381,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -4143,7 +4395,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>19</v>
@@ -4157,7 +4409,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>19</v>
@@ -4171,7 +4423,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>19</v>
@@ -4185,7 +4437,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>18</v>
@@ -4199,13 +4451,13 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
@@ -4317,13 +4569,13 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="86" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>216</v>
@@ -4350,7 +4602,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="60"/>
       <c r="F35" s="37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>19</v>
@@ -4374,7 +4626,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="60"/>
       <c r="F37" s="37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -4386,7 +4638,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="60"/>
       <c r="F38" s="70" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -4398,7 +4650,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="60"/>
       <c r="F39" s="70" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G39" s="71" t="s">
         <v>18</v>
@@ -4410,7 +4662,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="60"/>
       <c r="F40" s="70" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G40" s="71" t="s">
         <v>18</v>
@@ -4422,7 +4674,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="90"/>
       <c r="F41" s="37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>19</v>
@@ -4455,7 +4707,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -4463,7 +4715,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -4471,7 +4723,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4479,16 +4731,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -4579,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,18 +4889,18 @@
         <v>28</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
@@ -4657,27 +4909,27 @@
         <v>217</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -4697,13 +4949,13 @@
         <v>175</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -4717,13 +4969,13 @@
         <v>180</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -4737,13 +4989,13 @@
         <v>183</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
@@ -4757,7 +5009,7 @@
         <v>286</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>19</v>
@@ -4777,7 +5029,7 @@
         <v>177</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G12" s="50" t="s">
         <v>19</v>
@@ -4788,7 +5040,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
@@ -4797,13 +5049,13 @@
         <v>179</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
@@ -4817,7 +5069,7 @@
         <v>178</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>19</v>
@@ -4842,7 +5094,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
@@ -4856,7 +5108,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>18</v>
@@ -4870,13 +5122,13 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
@@ -5035,7 +5287,7 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="38" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>19</v>
@@ -5056,7 +5308,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -5068,7 +5320,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -5104,7 +5356,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G41" s="71" t="s">
         <v>18</v>
@@ -5141,7 +5393,7 @@
         <v>299</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -5149,7 +5401,7 @@
         <v>298</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
@@ -5157,7 +5409,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5165,16 +5417,16 @@
         <v>301</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F51" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
@@ -5265,8 +5517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,16 +5566,16 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -5334,7 +5586,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="49" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>19</v>
@@ -5343,7 +5595,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -5354,16 +5606,16 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -5374,13 +5626,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -5388,7 +5640,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="49" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>19</v>
@@ -5402,7 +5654,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -5416,7 +5668,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="49" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>19</v>
@@ -5464,7 +5716,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -5472,7 +5724,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -5486,13 +5738,13 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
@@ -5500,13 +5752,13 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
@@ -5514,7 +5766,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="49" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>19</v>
@@ -5643,16 +5895,16 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>19</v>
@@ -5664,7 +5916,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="F34" s="37" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -5700,7 +5952,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -5712,7 +5964,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="70" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -5749,7 +6001,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -5757,7 +6009,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -5765,7 +6017,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5773,16 +6025,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -5873,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,7 +6183,7 @@
         <v>177</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -5956,13 +6208,13 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12"/>
@@ -5970,13 +6222,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -5984,13 +6236,13 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12"/>
@@ -5998,7 +6250,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -6194,7 +6446,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="35" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>19</v>
@@ -6230,7 +6482,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -6242,7 +6494,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -6254,7 +6506,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -6266,7 +6518,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="37" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>19</v>
@@ -6278,7 +6530,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="37" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>19</v>
@@ -6290,7 +6542,7 @@
       <c r="D41" s="16"/>
       <c r="E41" s="4"/>
       <c r="F41" s="94" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G41" s="95" t="s">
         <v>18</v>
@@ -6303,7 +6555,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -6311,7 +6563,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -6319,7 +6571,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6327,16 +6579,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -6426,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6484,7 +6736,7 @@
         <v>177</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
@@ -6509,13 +6761,13 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12"/>
@@ -6523,7 +6775,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
@@ -6537,7 +6789,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="49" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>19</v>
@@ -6551,7 +6803,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
@@ -6565,13 +6817,13 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -6759,7 +7011,7 @@
         <v>234</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>19</v>
@@ -6768,16 +7020,16 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="41" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -6786,16 +7038,16 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="41" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>19</v>
@@ -6804,13 +7056,13 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="41" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F36" s="37" t="s">
         <v>216</v>
@@ -6837,7 +7089,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -6874,7 +7126,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -6882,7 +7134,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -6890,7 +7142,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6898,16 +7150,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -6998,8 +7250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7047,16 +7299,16 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>381</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>385</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -7067,42 +7319,42 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>575</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>576</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
@@ -7116,7 +7368,7 @@
         <v>176</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>19</v>
@@ -7127,7 +7379,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
@@ -7136,7 +7388,7 @@
         <v>177</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>19</v>
@@ -7147,16 +7399,16 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>19</v>
@@ -7167,7 +7419,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="49" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>19</v>
@@ -7176,7 +7428,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>19</v>
@@ -7196,7 +7448,7 @@
         <v>229</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>18</v>
@@ -7216,7 +7468,7 @@
         <v>180</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>19</v>
@@ -7425,7 +7677,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -7437,7 +7689,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="70" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G37" s="71" t="s">
         <v>18</v>
@@ -7449,7 +7701,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -7461,7 +7713,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="37" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>19</v>
@@ -7473,7 +7725,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="70" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G40" s="71" t="s">
         <v>18</v>
@@ -7485,7 +7737,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="37" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>19</v>
@@ -7497,7 +7749,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="70" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G42" s="71" t="s">
         <v>18</v>
@@ -7509,7 +7761,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="37" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>19</v>
@@ -7533,7 +7785,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="4"/>
       <c r="F45" s="94" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G45" s="95" t="s">
         <v>18</v>
@@ -7546,7 +7798,7 @@
         <v>299</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
@@ -7554,7 +7806,7 @@
         <v>298</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
@@ -7562,7 +7814,7 @@
         <v>300</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7570,16 +7822,16 @@
         <v>301</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F52" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
@@ -7669,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,16 +7970,16 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -7738,16 +7990,16 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -7758,7 +8010,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>19</v>
@@ -7767,7 +8019,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -7778,7 +8030,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="49" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>19</v>
@@ -7826,7 +8078,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -7848,7 +8100,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
@@ -7862,13 +8114,13 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -7876,7 +8128,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -7890,7 +8142,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="49" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>19</v>
@@ -7904,7 +8156,7 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="49" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>19</v>
@@ -7918,7 +8170,7 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="49" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>19</v>
@@ -7932,7 +8184,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="49" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>19</v>
@@ -7946,7 +8198,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="49" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>19</v>
@@ -8062,7 +8314,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="72" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G33" s="73" t="s">
         <v>18</v>
@@ -8086,7 +8338,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="37" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>19</v>
@@ -8098,7 +8350,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="70" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G36" s="71" t="s">
         <v>18</v>
@@ -8110,7 +8362,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G37" s="71" t="s">
         <v>18</v>
@@ -8122,7 +8374,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -8146,7 +8398,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="70" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G40" s="71" t="s">
         <v>18</v>
@@ -8158,7 +8410,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="70" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G41" s="71" t="s">
         <v>18</v>
@@ -8182,7 +8434,7 @@
       <c r="D43" s="16"/>
       <c r="E43" s="4"/>
       <c r="F43" s="56" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>19</v>
@@ -8195,7 +8447,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -8203,7 +8455,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -8211,7 +8463,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8219,16 +8471,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -8318,8 +8570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,16 +8619,16 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -8415,13 +8667,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -8639,7 +8891,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="F34" s="37" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -8708,7 +8960,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -8716,7 +8968,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -8724,7 +8976,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8732,16 +8984,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -8831,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8894,13 +9146,13 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="12"/>
@@ -8922,13 +9174,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -8936,13 +9188,13 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12"/>
@@ -8964,7 +9216,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
@@ -9020,7 +9272,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -9048,13 +9300,13 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
@@ -9062,13 +9314,13 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
@@ -9090,13 +9342,13 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
@@ -9104,7 +9356,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="49" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>19</v>
@@ -9225,7 +9477,7 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="38" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>19</v>
@@ -9243,16 +9495,16 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="41" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -9263,7 +9515,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -9340,7 +9592,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -9348,7 +9600,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -9356,7 +9608,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9364,16 +9616,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -9464,8 +9716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9522,13 +9774,13 @@
         <v>177</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -9542,7 +9794,7 @@
         <v>173</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G6" s="98" t="s">
         <v>19</v>
@@ -9553,7 +9805,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>19</v>
@@ -9562,7 +9814,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -9582,13 +9834,13 @@
         <v>254</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -9613,13 +9865,13 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="12"/>
@@ -9627,7 +9879,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
@@ -9641,13 +9893,13 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -9655,13 +9907,13 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
@@ -9669,7 +9921,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="49" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>19</v>
@@ -9683,7 +9935,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -9697,13 +9949,13 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
@@ -9711,13 +9963,13 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
@@ -9725,13 +9977,13 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
@@ -9739,7 +9991,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="29" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>18</v>
@@ -9852,16 +10104,16 @@
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" s="38" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="F32" s="35" t="s">
         <v>614</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>618</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>19</v>
@@ -9870,16 +10122,16 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="F33" s="70" t="s">
         <v>615</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>619</v>
       </c>
       <c r="G33" s="71" t="s">
         <v>18</v>
@@ -9903,7 +10155,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="70" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G35" s="71" t="s">
         <v>18</v>
@@ -9915,7 +10167,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="70" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G36" s="71" t="s">
         <v>18</v>
@@ -9939,7 +10191,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="70" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -9968,7 +10220,7 @@
         <v>299</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
@@ -9976,7 +10228,7 @@
         <v>298</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -9984,7 +10236,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9992,16 +10244,16 @@
         <v>301</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
@@ -10092,8 +10344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10648,7 +10900,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -10656,7 +10908,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -10664,7 +10916,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10672,16 +10924,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -10772,8 +11024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10821,7 +11073,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
@@ -10877,13 +11129,13 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12"/>
@@ -10891,7 +11143,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -10905,13 +11157,13 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -10919,13 +11171,13 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -10933,13 +11185,13 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
@@ -10947,13 +11199,13 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -11188,7 +11440,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -11196,7 +11448,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -11204,7 +11456,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11212,16 +11464,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -11311,8 +11563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11360,7 +11612,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
@@ -11369,13 +11621,13 @@
         <v>179</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -11389,18 +11641,18 @@
         <v>178</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="49" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>19</v>
@@ -11409,7 +11661,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -11420,7 +11672,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
@@ -11462,7 +11714,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="49" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>19</v>
@@ -11476,13 +11728,13 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -11490,7 +11742,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="49" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>19</v>
@@ -11504,13 +11756,13 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -11518,7 +11770,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -11674,7 +11926,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="10"/>
       <c r="F33" s="35" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>19</v>
@@ -11698,7 +11950,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="37" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>19</v>
@@ -11710,7 +11962,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -11722,7 +11974,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -11734,7 +11986,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="70" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -11758,7 +12010,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="37" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>19</v>
@@ -11770,7 +12022,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="37" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>19</v>
@@ -11782,7 +12034,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="37" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>19</v>
@@ -11794,7 +12046,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="37" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>19</v>
@@ -11830,7 +12082,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="2"/>
       <c r="F46" s="70" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G46" s="71" t="s">
         <v>18</v>
@@ -11842,7 +12094,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="2"/>
       <c r="F47" s="70" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G47" s="71" t="s">
         <v>18</v>
@@ -11867,7 +12119,7 @@
         <v>299</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -11875,7 +12127,7 @@
         <v>298</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -11883,7 +12135,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11891,16 +12143,16 @@
         <v>301</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
@@ -11990,8 +12242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12048,34 +12300,34 @@
         <v>263</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="48" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="51" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="49" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>19</v>
@@ -12089,7 +12341,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="49" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>19</v>
@@ -12103,7 +12355,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="49" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>19</v>
@@ -12117,7 +12369,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -12131,7 +12383,7 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
@@ -12145,13 +12397,13 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -12159,13 +12411,13 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
@@ -12173,7 +12425,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
@@ -12187,13 +12439,13 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
@@ -12201,13 +12453,13 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
@@ -12385,7 +12637,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="49" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G36" s="51" t="s">
         <v>18</v>
@@ -12397,7 +12649,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="49" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G37" s="51" t="s">
         <v>18</v>
@@ -12409,7 +12661,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>19</v>
@@ -12470,7 +12722,7 @@
         <v>299</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -12478,7 +12730,7 @@
         <v>298</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -12486,7 +12738,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12494,16 +12746,16 @@
         <v>301</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -12593,8 +12845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12651,33 +12903,33 @@
         <v>218</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
@@ -12691,7 +12943,7 @@
         <v>177</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -12711,13 +12963,13 @@
         <v>178</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -12731,13 +12983,13 @@
         <v>209</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
@@ -12751,7 +13003,7 @@
         <v>224</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>18</v>
@@ -12771,7 +13023,7 @@
         <v>258</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>18</v>
@@ -12782,13 +13034,13 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12"/>
@@ -12796,7 +13048,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>19</v>
@@ -12838,7 +13090,7 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="49" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>19</v>
@@ -13016,7 +13268,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="70" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G35" s="71" t="s">
         <v>18</v>
@@ -13028,7 +13280,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G36" s="71" t="s">
         <v>18</v>
@@ -13040,7 +13292,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="70" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G37" s="71" t="s">
         <v>18</v>
@@ -13052,7 +13304,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="70" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -13089,7 +13341,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -13097,7 +13349,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -13105,7 +13357,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13113,16 +13365,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -13212,8 +13464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13261,7 +13513,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
@@ -13275,13 +13527,13 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="12"/>
@@ -13289,13 +13541,13 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12"/>
@@ -13317,7 +13569,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
@@ -13345,13 +13597,13 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -13530,13 +13782,13 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>189</v>
@@ -13557,7 +13809,7 @@
         <v>284</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -13626,7 +13878,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -13634,7 +13886,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -13642,7 +13894,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13650,16 +13902,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -13749,8 +14001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13807,18 +14059,18 @@
         <v>177</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
@@ -13827,7 +14079,7 @@
         <v>178</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -13838,7 +14090,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
@@ -13847,7 +14099,7 @@
         <v>179</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -13858,13 +14110,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -13872,7 +14124,7 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
@@ -13886,7 +14138,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -13900,13 +14152,13 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -13914,7 +14166,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
@@ -14106,7 +14358,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="F34" s="37" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -14179,7 +14431,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -14187,7 +14439,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -14195,7 +14447,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14203,16 +14455,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -14302,8 +14554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14351,7 +14603,7 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="46" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>19</v>
@@ -14360,7 +14612,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -14371,16 +14623,16 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -14405,13 +14657,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -14447,13 +14699,13 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12"/>
@@ -14461,7 +14713,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
@@ -14475,13 +14727,13 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
@@ -14489,13 +14741,13 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -14517,13 +14769,13 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
@@ -14693,7 +14945,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -14705,7 +14957,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -14729,7 +14981,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="37" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>19</v>
@@ -14741,7 +14993,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="2"/>
       <c r="F40" s="37" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>19</v>
@@ -14753,7 +15005,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="49" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G41" s="51" t="s">
         <v>18</v>
@@ -14765,7 +15017,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="49" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G42" s="51" t="s">
         <v>18</v>
@@ -14786,7 +15038,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -14794,7 +15046,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -14802,7 +15054,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14810,16 +15062,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -14909,8 +15161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14967,7 +15219,7 @@
         <v>177</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -14978,7 +15230,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
@@ -14987,7 +15239,7 @@
         <v>182</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>18</v>
@@ -14998,7 +15250,7 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>18</v>
@@ -15007,7 +15259,7 @@
         <v>224</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -15018,13 +15270,13 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -15046,7 +15298,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="49" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>19</v>
@@ -15074,7 +15326,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
@@ -15102,7 +15354,7 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
@@ -15116,7 +15368,7 @@
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="49" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>19</v>
@@ -15274,7 +15526,7 @@
         <v>234</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>19</v>
@@ -15298,7 +15550,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="F34" s="70" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G34" s="71" t="s">
         <v>18</v>
@@ -15359,7 +15611,7 @@
         <v>299</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
@@ -15367,7 +15619,7 @@
         <v>298</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -15375,7 +15627,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15383,16 +15635,16 @@
         <v>301</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
@@ -15483,8 +15735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50:F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15532,16 +15784,16 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="48" t="s">
@@ -15550,7 +15802,7 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>18</v>
@@ -15559,11 +15811,11 @@
         <v>261</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="30" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
@@ -15577,7 +15829,7 @@
         <v>177</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="51" t="s">
@@ -15586,7 +15838,7 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="49" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>19</v>
@@ -15595,7 +15847,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="51" t="s">
@@ -15613,7 +15865,7 @@
         <v>173</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="51" t="s">
@@ -15622,16 +15874,16 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="51" t="s">
@@ -15649,7 +15901,7 @@
         <v>178</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G11" s="50"/>
       <c r="H11" s="51" t="s">
@@ -15658,7 +15910,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>18</v>
@@ -15667,7 +15919,7 @@
         <v>209</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="51" t="s">
@@ -15676,7 +15928,7 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="49" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>19</v>
@@ -15685,7 +15937,7 @@
         <v>28</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="51" t="s">
@@ -15703,22 +15955,22 @@
         <v>258</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="12"/>
@@ -15754,13 +16006,13 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="12"/>
@@ -15898,7 +16150,7 @@
         <v>234</v>
       </c>
       <c r="F33" s="72" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G33" s="73" t="s">
         <v>18</v>
@@ -15922,7 +16174,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="70" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G35" s="71" t="s">
         <v>18</v>
@@ -15934,7 +16186,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -15946,7 +16198,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="2"/>
       <c r="F37" s="37" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>19</v>
@@ -15958,7 +16210,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="2"/>
       <c r="F38" s="70" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G38" s="71" t="s">
         <v>18</v>
@@ -16006,7 +16258,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="70" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G42" s="71" t="s">
         <v>18</v>
@@ -16018,7 +16270,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="70" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G43" s="71" t="s">
         <v>18</v>
@@ -16030,7 +16282,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="2"/>
       <c r="F44" s="70" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G44" s="71" t="s">
         <v>18</v>
@@ -16042,7 +16294,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="2"/>
       <c r="F45" s="70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G45" s="71" t="s">
         <v>18</v>
@@ -16054,7 +16306,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="2"/>
       <c r="F46" s="37" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>19</v>
@@ -16066,7 +16318,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="2"/>
       <c r="F47" s="70" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G47" s="71" t="s">
         <v>18</v>
@@ -16078,7 +16330,7 @@
       <c r="D48" s="16"/>
       <c r="E48" s="4"/>
       <c r="F48" s="56" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>19</v>
@@ -16091,7 +16343,7 @@
         <v>299</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -16099,7 +16351,7 @@
         <v>298</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -16107,7 +16359,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16115,16 +16367,16 @@
         <v>301</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E55" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F55" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
@@ -16215,8 +16467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="D39" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55:F60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16273,13 +16525,13 @@
         <v>286</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
@@ -16293,7 +16545,7 @@
         <v>258</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>19</v>
@@ -16313,7 +16565,7 @@
         <v>177</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>19</v>
@@ -16333,18 +16585,18 @@
         <v>178</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>18</v>
@@ -16353,7 +16605,7 @@
         <v>229</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>19</v>
@@ -16364,7 +16616,7 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>18</v>
@@ -16373,7 +16625,7 @@
         <v>209</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>19</v>
@@ -16426,13 +16678,13 @@
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12"/>
@@ -16454,13 +16706,13 @@
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="29" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="12"/>
@@ -16468,13 +16720,13 @@
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="29" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="12"/>
@@ -16496,13 +16748,13 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="29" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="12"/>
@@ -16510,13 +16762,13 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="12"/>
@@ -16524,13 +16776,13 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" s="29" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="12"/>
@@ -16652,7 +16904,7 @@
       <c r="D35" s="92"/>
       <c r="E35" s="93"/>
       <c r="F35" s="63" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G35" s="55" t="s">
         <v>19</v>
@@ -16664,7 +16916,7 @@
       <c r="D36" s="92"/>
       <c r="E36" s="93"/>
       <c r="F36" s="63" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>19</v>
@@ -16676,7 +16928,7 @@
       <c r="D37" s="92"/>
       <c r="E37" s="93"/>
       <c r="F37" s="63" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G37" s="55" t="s">
         <v>19</v>
@@ -16688,7 +16940,7 @@
       <c r="D38" s="92"/>
       <c r="E38" s="93"/>
       <c r="F38" s="63" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>19</v>
@@ -16700,7 +16952,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="37" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>19</v>
@@ -16724,7 +16976,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="2"/>
       <c r="F41" s="37" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>19</v>
@@ -16736,7 +16988,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="2"/>
       <c r="F42" s="37" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>19</v>
@@ -16748,7 +17000,7 @@
       <c r="D43" s="12"/>
       <c r="E43" s="2"/>
       <c r="F43" s="70" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G43" s="71" t="s">
         <v>18</v>
@@ -16772,7 +17024,7 @@
       <c r="D45" s="12"/>
       <c r="E45" s="2"/>
       <c r="F45" s="70" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G45" s="71" t="s">
         <v>18</v>
@@ -16784,7 +17036,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="2"/>
       <c r="F46" s="70" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G46" s="71" t="s">
         <v>18</v>
@@ -16796,7 +17048,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="2"/>
       <c r="F47" s="70" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G47" s="71" t="s">
         <v>18</v>
@@ -16808,7 +17060,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="2"/>
       <c r="F48" s="70" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G48" s="71" t="s">
         <v>18</v>
@@ -16820,7 +17072,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="2"/>
       <c r="F49" s="70" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G49" s="71" t="s">
         <v>18</v>
@@ -16844,7 +17096,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="2"/>
       <c r="F51" s="70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G51" s="71" t="s">
         <v>18</v>
@@ -16856,7 +17108,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="2"/>
       <c r="F52" s="70" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G52" s="71" t="s">
         <v>18</v>
@@ -16881,7 +17133,7 @@
         <v>299</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -16889,7 +17141,7 @@
         <v>298</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -16897,7 +17149,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16905,16 +17157,16 @@
         <v>301</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F60" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -17004,8 +17256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17526,7 +17778,7 @@
         <v>299</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -17534,7 +17786,7 @@
         <v>298</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -17542,7 +17794,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17550,16 +17802,16 @@
         <v>301</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -17649,8 +17901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17698,14 +17950,14 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G5" s="47" t="s">
         <v>19</v>
@@ -17716,20 +17968,20 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="49" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="51" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
@@ -17746,11 +17998,11 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="30" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12"/>
@@ -17758,11 +18010,11 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12"/>
@@ -17965,16 +18217,16 @@
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="38" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>19</v>
@@ -17986,7 +18238,7 @@
       <c r="D34" s="12"/>
       <c r="E34" s="2"/>
       <c r="F34" s="37" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>19</v>
@@ -18010,7 +18262,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="2"/>
       <c r="F36" s="37" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>19</v>
@@ -18063,7 +18315,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -18071,7 +18323,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -18079,7 +18331,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18087,16 +18339,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -18185,10 +18437,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:I35"/>
+  <dimension ref="D2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18200,10 +18452,10 @@
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="105" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E3" s="105" t="s">
         <v>216</v>
@@ -18221,12 +18473,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="103">
         <v>1</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F4" s="103">
         <f>Tonsillitis!F42</f>
@@ -18245,12 +18497,12 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" s="83">
         <v>2</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F5" s="83">
         <f>Ebola!F57</f>
@@ -18269,7 +18521,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="83">
         <v>3</v>
       </c>
@@ -18293,12 +18545,12 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="83">
         <v>4</v>
       </c>
       <c r="E7" s="107" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F7" s="83">
         <f>Leptospirosis!F53</f>
@@ -18317,7 +18569,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D8" s="83">
         <v>5</v>
       </c>
@@ -18340,13 +18592,19 @@
         <f>Brucellosis!F64</f>
         <v>0.72</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.92933749300000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D9" s="83">
         <v>6</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F9" s="83">
         <f>Cholera!F57</f>
@@ -18364,13 +18622,19 @@
         <f>Cholera!F60</f>
         <v>0.84848484848484851</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.67160504200000004</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" s="83">
         <v>7</v>
       </c>
       <c r="E10" s="107" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F10" s="83">
         <f>Diphteria!F57</f>
@@ -18388,13 +18652,19 @@
         <f>Diphteria!F60</f>
         <v>0.72222222222222221</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0.84279100500000004</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" s="83">
         <v>8</v>
       </c>
       <c r="E11" s="107" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F11" s="83">
         <f>Erypselas!F56</f>
@@ -18412,8 +18682,14 @@
         <f>Erypselas!F59</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0.76524344600000005</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" s="83">
         <v>9</v>
       </c>
@@ -18437,12 +18713,12 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" s="83">
         <v>10</v>
       </c>
       <c r="E13" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F13" s="83">
         <f>'Typhoid Fever'!F57</f>
@@ -18461,12 +18737,12 @@
         <v>0.7441860465116279</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D14" s="83">
         <v>11</v>
       </c>
       <c r="E14" s="107" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F14" s="83">
         <f>Legionnaire!F58</f>
@@ -18485,12 +18761,12 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D15" s="83">
         <v>12</v>
       </c>
       <c r="E15" s="107" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="F15" s="83">
         <f>Tetanus!F55</f>
@@ -18509,12 +18785,12 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D16" s="83">
         <v>13</v>
       </c>
       <c r="E16" s="107" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F16" s="83">
         <f>Chickenpox!F55</f>
@@ -18538,7 +18814,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="107" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F17" s="83">
         <f>'Fifth disease'!F55</f>
@@ -18586,7 +18862,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="107" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F19" s="83">
         <f>'Oral Herpes'!F57</f>
@@ -18610,7 +18886,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="107" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F20" s="83">
         <f>Impetigo!F55</f>
@@ -18658,7 +18934,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="107" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F22" s="83">
         <f>Meningitis!F54</f>
@@ -18682,7 +18958,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="107" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F23" s="83">
         <f>Mumps!F55</f>
@@ -18706,7 +18982,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="107" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F24" s="83">
         <f>Poliomyelitis!F62</f>
@@ -18730,7 +19006,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="107" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F25" s="83">
         <f>Rabies!F56</f>
@@ -18754,7 +19030,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="107" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F26" s="83">
         <f>'Rocky Mountain spotted fever'!F55</f>
@@ -18778,7 +19054,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="107" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F27" s="83">
         <f>Roseola!F55</f>
@@ -18802,7 +19078,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="107" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F28" s="83">
         <f>Rubella!F55</f>
@@ -18826,7 +19102,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="107" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="83">
         <f>Measles!F57</f>
@@ -18850,7 +19126,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F30" s="83">
         <f>'Scarlet fever'!F54</f>
@@ -18874,7 +19150,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="107" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F31" s="83">
         <f>SARS!F62</f>
@@ -18898,7 +19174,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="107" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F32" s="83">
         <f>'West Nile Virus'!$F$67</f>
@@ -18922,7 +19198,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="108" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F33" s="104">
         <f>Pertussis!F55</f>
@@ -18944,7 +19220,7 @@
     <row r="34" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="110" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F35" s="102">
         <f>SUM(F4:F33)/COUNTA(F4:F33)</f>
@@ -18966,6 +19242,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18973,8 +19250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19451,7 +19728,7 @@
         <v>299</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
@@ -19459,7 +19736,7 @@
         <v>298</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
@@ -19467,7 +19744,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19475,16 +19752,16 @@
         <v>301</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F46" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
@@ -19574,8 +19851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20162,7 +20439,7 @@
         <v>299</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -20170,7 +20447,7 @@
         <v>298</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -20178,7 +20455,7 @@
         <v>300</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20186,16 +20463,16 @@
         <v>301</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E54" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F54" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
@@ -20286,8 +20563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20760,7 +21037,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -20768,7 +21045,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -20776,7 +21053,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20784,16 +21061,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -20870,7 +21147,7 @@
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>304</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -20889,8 +21166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21384,7 +21661,7 @@
       <c r="D42" s="16"/>
       <c r="E42" s="4"/>
       <c r="F42" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G42" s="67" t="s">
         <v>19</v>
@@ -21397,7 +21674,7 @@
         <v>299</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -21405,7 +21682,7 @@
         <v>298</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -21413,7 +21690,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21421,16 +21698,16 @@
         <v>301</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
@@ -21506,7 +21783,7 @@
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>306</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -21525,8 +21802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21949,7 +22226,7 @@
         <v>299</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -21957,7 +22234,7 @@
         <v>298</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -21965,7 +22242,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21973,16 +22250,16 @@
         <v>301</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E49" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
@@ -22073,8 +22350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22496,7 +22773,7 @@
       <c r="D35" s="12"/>
       <c r="E35" s="2"/>
       <c r="F35" s="70" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G35" s="71" t="s">
         <v>18</v>
@@ -22557,7 +22834,7 @@
         <v>299</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -22565,7 +22842,7 @@
         <v>298</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -22573,7 +22850,7 @@
         <v>300</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22581,16 +22858,16 @@
         <v>301</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="68" t="s">
-        <v>307</v>
+        <v>715</v>
       </c>
       <c r="F48" s="69" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
@@ -22667,7 +22944,7 @@
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>309</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
